--- a/src/main/load_files/Emp123/123full.xlsx
+++ b/src/main/load_files/Emp123/123full.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\IdeaProjects\nicom-mvc\src\main\load_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B6F033-C861-4EED-A343-DB684ED36D72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{54DD0335-17A4-4947-9391-22FF1F832A36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1560" windowWidth="18240" windowHeight="28440" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
   <si>
     <t>Параметры:</t>
   </si>
@@ -116,6 +116,39 @@
   </si>
   <si>
     <t>8-905-722-67-88</t>
+  </si>
+  <si>
+    <t>04.12.2022 15:21:20</t>
+  </si>
+  <si>
+    <t>М12-90948</t>
+  </si>
+  <si>
+    <t>Lenovo Z500</t>
+  </si>
+  <si>
+    <t>Илюшин Андрей Альбертович</t>
+  </si>
+  <si>
+    <t>8-968-339-66-87</t>
+  </si>
+  <si>
+    <t>01.11.2022 14:47:57</t>
+  </si>
+  <si>
+    <t>СТ12-43304</t>
+  </si>
+  <si>
+    <t>pocketbook</t>
+  </si>
+  <si>
+    <t>электронная книга</t>
+  </si>
+  <si>
+    <t>Мартынова Ольга Анатольевна</t>
+  </si>
+  <si>
+    <t>8-916-140-04-67</t>
   </si>
   <si>
     <t>01.11.2022 14:18:18</t>
@@ -170,7 +203,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -193,48 +226,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFCCC085"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFCCC085"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFCCC085"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFCCC085"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFCCC085"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFCCC085"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFCCC085"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFCCC085"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -266,32 +262,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -635,10 +616,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:N58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
@@ -686,21 +667,21 @@
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:14" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
       <c r="D5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="18"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="3" t="s">
         <v>8</v>
       </c>
@@ -756,19 +737,19 @@
       <c r="N7" s="9"/>
     </row>
     <row r="8" spans="1:14" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="8"/>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="14"/>
+      <c r="G8" s="12"/>
       <c r="H8" s="4" t="s">
         <v>19</v>
       </c>
@@ -784,29 +765,25 @@
       <c r="L8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="M8" s="19">
-        <v>11200</v>
-      </c>
-      <c r="N8" s="5">
-        <v>125454</v>
-      </c>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
     </row>
     <row r="9" spans="1:14" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="6">
         <v>-4</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="14"/>
+      <c r="G9" s="12"/>
       <c r="H9" s="4" t="s">
         <v>24</v>
       </c>
@@ -830,21 +807,21 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
       <c r="D10" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="6">
         <v>-4</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="14"/>
+      <c r="G10" s="12"/>
       <c r="H10" s="4" t="s">
         <v>28</v>
       </c>
@@ -867,77 +844,121 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:14" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="10" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="6">
+        <v>-5</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M11" s="7">
+        <v>4500</v>
+      </c>
+      <c r="N11" s="7">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="14">
         <v>22</v>
       </c>
-      <c r="F11" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="L11" s="10" t="s">
+      <c r="F12" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="M11" s="12">
+      <c r="G12" s="12"/>
+      <c r="H12" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="M12" s="7">
+        <v>3500</v>
+      </c>
+      <c r="N12" s="7">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="14">
+        <v>22</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="M13" s="7">
         <v>3800</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N13" s="7">
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12"/>
-      <c r="N12"/>
-    </row>
-    <row r="13" spans="1:14" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
-      <c r="M13"/>
-      <c r="N13"/>
-    </row>
-    <row r="14" spans="1:14" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -953,7 +974,7 @@
       <c r="M14"/>
       <c r="N14"/>
     </row>
-    <row r="15" spans="1:14" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -969,7 +990,7 @@
       <c r="M15"/>
       <c r="N15"/>
     </row>
-    <row r="16" spans="1:14" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -985,7 +1006,7 @@
       <c r="M16"/>
       <c r="N16"/>
     </row>
-    <row r="17" spans="1:14" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
@@ -1001,7 +1022,7 @@
       <c r="M17"/>
       <c r="N17"/>
     </row>
-    <row r="18" spans="1:14" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
@@ -1193,39 +1214,75 @@
       <c r="M29"/>
       <c r="N29"/>
     </row>
-    <row r="30" spans="1:14" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:14" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:14" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+    </row>
+    <row r="31" spans="1:14" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+    </row>
     <row r="32" spans="1:14" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2"/>
     <row r="33" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2"/>
     <row r="34" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2"/>
     <row r="35" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2"/>
     <row r="36" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="11.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2"/>
     <row r="55" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="11.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="14">
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="F10:G10"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="F11:G11"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="F10:G10"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="A8:C8"/>
@@ -1234,6 +1291,5 @@
     <mergeCell ref="F9:G9"/>
   </mergeCells>
   <pageMargins left="0.75" right="1" top="0.75" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/load_files/Emp123/123full.xlsx
+++ b/src/main/load_files/Emp123/123full.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/SharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
   <si>
     <t>Параметры:</t>
   </si>
   <si>
-    <t>Дата О: 27.12.2022 0:00:00</t>
+    <t>Дата О: 06.01.2023 0:00:00</t>
   </si>
   <si>
     <t>Отбор:</t>
@@ -124,6 +124,27 @@
     <t>8-917-522-56-98</t>
   </si>
   <si>
+    <t>Л66 мастерская</t>
+  </si>
+  <si>
+    <t>06.01.2023 9:52:46</t>
+  </si>
+  <si>
+    <t>Л66-15347</t>
+  </si>
+  <si>
+    <t>Epson H852B</t>
+  </si>
+  <si>
+    <t>проектор</t>
+  </si>
+  <si>
+    <t>Скидан Алексей Вячеславович</t>
+  </si>
+  <si>
+    <t>8-905-582-00-88</t>
+  </si>
+  <si>
     <t>М12 мастерская </t>
   </si>
   <si>
@@ -316,19 +337,55 @@
     <t>8-963-613-12-03, 8-919-993-47-05</t>
   </si>
   <si>
-    <t>21.12.2022 10:13:11</t>
-  </si>
-  <si>
-    <t>М12-91191</t>
-  </si>
-  <si>
-    <t>Аsus x200m Синий</t>
-  </si>
-  <si>
-    <t>Черевко Сергей Николаевич</t>
-  </si>
-  <si>
-    <t>8-926-339-76-87, 8-929-629-37-73</t>
+    <t>27.12.2022 10:36:07</t>
+  </si>
+  <si>
+    <t>М12-91283</t>
+  </si>
+  <si>
+    <t>Lenovo B50-80</t>
+  </si>
+  <si>
+    <t>Масленников Тимур Львович</t>
+  </si>
+  <si>
+    <t>8-999-963-36-72</t>
+  </si>
+  <si>
+    <t>29.12.2022 15:09:32</t>
+  </si>
+  <si>
+    <t>М12-91338</t>
+  </si>
+  <si>
+    <t>Macbook air серебро a1369</t>
+  </si>
+  <si>
+    <t>Скобелин Евгений Олегович</t>
+  </si>
+  <si>
+    <t>8-925-881-31-10</t>
+  </si>
+  <si>
+    <t>29.12.2022 15:15:54</t>
+  </si>
+  <si>
+    <t>М12-91340</t>
+  </si>
+  <si>
+    <t>Hp G6-1210</t>
+  </si>
+  <si>
+    <t>03.01.2023 12:09:47</t>
+  </si>
+  <si>
+    <t>СТ12-44316</t>
+  </si>
+  <si>
+    <t>Мартынова Марина Владимировна</t>
+  </si>
+  <si>
+    <t>8-985-750-03-96</t>
   </si>
   <si>
     <t>П18 отделение</t>
@@ -361,6 +418,24 @@
     <t>8-926-877-61-27</t>
   </si>
   <si>
+    <t>ПВ1 отделение</t>
+  </si>
+  <si>
+    <t>06.01.2023 10:05:47</t>
+  </si>
+  <si>
+    <t>ПВ1-1700</t>
+  </si>
+  <si>
+    <t>HP     CO71-430ER</t>
+  </si>
+  <si>
+    <t>Замсков Вячеслав Алексеевич</t>
+  </si>
+  <si>
+    <t>8-906-754-41-94</t>
+  </si>
+  <si>
     <t>СТ12 мастерская </t>
   </si>
   <si>
@@ -373,9 +448,6 @@
     <t>Benq MP625P</t>
   </si>
   <si>
-    <t>проектор</t>
-  </si>
-  <si>
     <t>Корниенко Татьяна Григорьевна</t>
   </si>
   <si>
@@ -407,33 +479,6 @@
   </si>
   <si>
     <t>8-904-650-80-46</t>
-  </si>
-  <si>
-    <t>23.12.2022 10:18:33</t>
-  </si>
-  <si>
-    <t>СТ12-44150</t>
-  </si>
-  <si>
-    <t>sony </t>
-  </si>
-  <si>
-    <t>Сальцев Павел Владимирович</t>
-  </si>
-  <si>
-    <t>8-962-978-14-41</t>
-  </si>
-  <si>
-    <t>СТ12-44225</t>
-  </si>
-  <si>
-    <t>T10W</t>
-  </si>
-  <si>
-    <t>Светлаков Юрий Викторович</t>
-  </si>
-  <si>
-    <t>8-930-896-96-97</t>
   </si>
   <si>
     <t>Хранение СТ12</t>
@@ -615,7 +660,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf/>
     <xf applyAlignment="true">
       <alignment horizontal="left"/>
@@ -677,23 +722,14 @@
     <xf numFmtId="3" fontId="3" fillId="4" borderId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="top" wrapText="0"/>
     </xf>
+    <xf numFmtId="3" borderId="1" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="top" wrapText="0"/>
+    </xf>
     <xf numFmtId="1" borderId="1" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" borderId="1" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="right" vertical="top" wrapText="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="right" vertical="top" wrapText="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="right" vertical="top" wrapText="0"/>
-    </xf>
     <xf numFmtId="3" fillId="5" borderId="1" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" borderId="1" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="right" vertical="top" wrapText="0"/>
     </xf>
     <xf fontId="2" fillId="2" borderId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top"/>
@@ -720,7 +756,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false"/>
   </sheetPr>
-  <dimension ref="N46"/>
+  <dimension ref="N53"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -854,7 +890,7 @@
         <v>16</v>
       </c>
       <c r="E8" s="17" t="n">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>17</v>
@@ -926,7 +962,7 @@
         <v>16</v>
       </c>
       <c r="E11" s="17" t="n">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="F11" s="16" t="s">
         <v>24</v>
@@ -1005,8 +1041,8 @@
       <c r="D14" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="21" t="n">
-        <v>-2</v>
+      <c r="E14" s="17" t="n">
+        <v>8</v>
       </c>
       <c r="F14" s="16" t="s">
         <v>30</v>
@@ -1027,10 +1063,10 @@
       <c r="L14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="M14" s="22" t="n">
+      <c r="M14" s="21" t="n">
         <v>10700</v>
       </c>
-      <c r="N14" s="22" t="n">
+      <c r="N14" s="21" t="n">
         <v>10000</v>
       </c>
     </row>
@@ -1049,12 +1085,8 @@
       <c r="J15" s="5" t="e"/>
       <c r="K15" s="5" t="e"/>
       <c r="L15" s="5" t="e"/>
-      <c r="M15" s="19" t="n">
-        <v>1200</v>
-      </c>
-      <c r="N15" s="23" t="n">
-        <v>500</v>
-      </c>
+      <c r="M15" s="8" t="e"/>
+      <c r="N15" s="8" t="e"/>
     </row>
     <row r="16" ht="11" customHeight="true" outlineLevel="1">
       <c r="A16" s="9" t="s">
@@ -1073,12 +1105,8 @@
       <c r="J16" s="11" t="e"/>
       <c r="K16" s="11" t="e"/>
       <c r="L16" s="11" t="e"/>
-      <c r="M16" s="20" t="n">
-        <v>1200</v>
-      </c>
-      <c r="N16" s="24" t="n">
-        <v>500</v>
-      </c>
+      <c r="M16" s="14" t="e"/>
+      <c r="N16" s="14" t="e"/>
     </row>
     <row r="17" ht="11" customHeight="true" outlineLevel="2">
       <c r="A17" s="15" t="s">
@@ -1089,8 +1117,8 @@
       <c r="D17" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="25" t="n">
-        <v>1621</v>
+      <c r="E17" s="22" t="n">
+        <v>-7</v>
       </c>
       <c r="F17" s="16" t="s">
         <v>37</v>
@@ -1103,122 +1131,100 @@
         <v>39</v>
       </c>
       <c r="J17" s="16" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="K17" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L17" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M17" s="18" t="e"/>
       <c r="N17" s="18" t="e"/>
     </row>
-    <row r="18" ht="11" customHeight="true" outlineLevel="2">
-      <c r="A18" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="15" t="e"/>
-      <c r="C18" s="15" t="e"/>
-      <c r="D18" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="17" t="n">
-        <v>588</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="G18" s="16" t="e"/>
-      <c r="H18" s="16" t="s">
+    <row r="18" ht="11" customHeight="true">
+      <c r="A18" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I18" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="J18" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="K18" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="L18" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="M18" s="18" t="e"/>
-      <c r="N18" s="18" t="e"/>
-    </row>
-    <row r="19" ht="11" customHeight="true" outlineLevel="2">
-      <c r="A19" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="15" t="e"/>
-      <c r="C19" s="15" t="e"/>
-      <c r="D19" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="17" t="n">
-        <v>566</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="16" t="e"/>
-      <c r="H19" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="I19" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="J19" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="K19" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="L19" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="M19" s="18" t="e"/>
-      <c r="N19" s="18" t="e"/>
+      <c r="B18" s="4" t="e"/>
+      <c r="C18" s="4" t="e"/>
+      <c r="D18" s="5" t="e"/>
+      <c r="E18" s="5" t="e"/>
+      <c r="F18" s="6" t="e"/>
+      <c r="G18" s="7" t="e"/>
+      <c r="H18" s="5" t="e"/>
+      <c r="I18" s="5" t="e"/>
+      <c r="J18" s="5" t="e"/>
+      <c r="K18" s="5" t="e"/>
+      <c r="L18" s="5" t="e"/>
+      <c r="M18" s="19" t="n">
+        <v>18900</v>
+      </c>
+      <c r="N18" s="19" t="n">
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="19" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A19" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="9" t="e"/>
+      <c r="C19" s="9" t="e"/>
+      <c r="D19" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="11" t="e"/>
+      <c r="F19" s="12" t="e"/>
+      <c r="G19" s="13" t="e"/>
+      <c r="H19" s="11" t="e"/>
+      <c r="I19" s="11" t="e"/>
+      <c r="J19" s="11" t="e"/>
+      <c r="K19" s="11" t="e"/>
+      <c r="L19" s="11" t="e"/>
+      <c r="M19" s="20" t="n">
+        <v>18900</v>
+      </c>
+      <c r="N19" s="20" t="n">
+        <v>17500</v>
+      </c>
     </row>
     <row r="20" ht="11" customHeight="true" outlineLevel="2">
       <c r="A20" s="15" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B20" s="15" t="e"/>
       <c r="C20" s="15" t="e"/>
       <c r="D20" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="17" t="n">
-        <v>504</v>
+      <c r="E20" s="23" t="n">
+        <v>1631</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G20" s="16" t="e"/>
       <c r="H20" s="16" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="J20" s="16" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="K20" s="16" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="L20" s="16" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="M20" s="18" t="e"/>
       <c r="N20" s="18" t="e"/>
     </row>
     <row r="21" ht="11" customHeight="true" outlineLevel="2">
       <c r="A21" s="15" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B21" s="15" t="e"/>
       <c r="C21" s="15" t="e"/>
@@ -1226,33 +1232,33 @@
         <v>16</v>
       </c>
       <c r="E21" s="17" t="n">
-        <v>400</v>
+        <v>598</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G21" s="16" t="e"/>
       <c r="H21" s="16" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="J21" s="16" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="K21" s="16" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="L21" s="16" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="M21" s="18" t="e"/>
       <c r="N21" s="18" t="e"/>
     </row>
     <row r="22" ht="11" customHeight="true" outlineLevel="2">
       <c r="A22" s="15" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B22" s="15" t="e"/>
       <c r="C22" s="15" t="e"/>
@@ -1260,33 +1266,33 @@
         <v>16</v>
       </c>
       <c r="E22" s="17" t="n">
-        <v>165</v>
+        <v>576</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="G22" s="16" t="e"/>
       <c r="H22" s="16" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="J22" s="16" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="K22" s="16" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="L22" s="16" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="M22" s="18" t="e"/>
       <c r="N22" s="18" t="e"/>
     </row>
     <row r="23" ht="11" customHeight="true" outlineLevel="2">
       <c r="A23" s="15" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B23" s="15" t="e"/>
       <c r="C23" s="15" t="e"/>
@@ -1294,33 +1300,33 @@
         <v>16</v>
       </c>
       <c r="E23" s="17" t="n">
-        <v>151</v>
+        <v>514</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="G23" s="16" t="e"/>
       <c r="H23" s="16" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="I23" s="16" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="J23" s="16" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="K23" s="16" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="L23" s="16" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="M23" s="18" t="e"/>
       <c r="N23" s="18" t="e"/>
     </row>
     <row r="24" ht="11" customHeight="true" outlineLevel="2">
       <c r="A24" s="15" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B24" s="15" t="e"/>
       <c r="C24" s="15" t="e"/>
@@ -1328,33 +1334,33 @@
         <v>16</v>
       </c>
       <c r="E24" s="17" t="n">
-        <v>134</v>
+        <v>410</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="G24" s="16" t="e"/>
       <c r="H24" s="16" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="I24" s="16" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="J24" s="16" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="K24" s="16" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="L24" s="16" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="M24" s="18" t="e"/>
       <c r="N24" s="18" t="e"/>
     </row>
     <row r="25" ht="11" customHeight="true" outlineLevel="2">
       <c r="A25" s="15" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B25" s="15" t="e"/>
       <c r="C25" s="15" t="e"/>
@@ -1362,33 +1368,33 @@
         <v>16</v>
       </c>
       <c r="E25" s="17" t="n">
-        <v>103</v>
+        <v>175</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G25" s="16" t="e"/>
       <c r="H25" s="16" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="I25" s="16" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J25" s="16" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="K25" s="16" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="L25" s="16" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="M25" s="18" t="e"/>
       <c r="N25" s="18" t="e"/>
     </row>
     <row r="26" ht="11" customHeight="true" outlineLevel="2">
       <c r="A26" s="15" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B26" s="15" t="e"/>
       <c r="C26" s="15" t="e"/>
@@ -1396,33 +1402,33 @@
         <v>16</v>
       </c>
       <c r="E26" s="17" t="n">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G26" s="16" t="e"/>
       <c r="H26" s="16" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I26" s="16" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J26" s="16" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="K26" s="16" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="L26" s="16" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="M26" s="18" t="e"/>
       <c r="N26" s="18" t="e"/>
     </row>
     <row r="27" ht="11" customHeight="true" outlineLevel="2">
       <c r="A27" s="15" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B27" s="15" t="e"/>
       <c r="C27" s="15" t="e"/>
@@ -1430,33 +1436,33 @@
         <v>16</v>
       </c>
       <c r="E27" s="17" t="n">
-        <v>41</v>
+        <v>144</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G27" s="16" t="e"/>
       <c r="H27" s="16" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="I27" s="16" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="J27" s="16" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="K27" s="16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="L27" s="16" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="M27" s="18" t="e"/>
       <c r="N27" s="18" t="e"/>
     </row>
     <row r="28" ht="11" customHeight="true" outlineLevel="2">
       <c r="A28" s="15" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B28" s="15" t="e"/>
       <c r="C28" s="15" t="e"/>
@@ -1464,109 +1470,135 @@
         <v>16</v>
       </c>
       <c r="E28" s="17" t="n">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="G28" s="16" t="e"/>
       <c r="H28" s="16" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="I28" s="16" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="J28" s="16" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="K28" s="16" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="L28" s="16" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="M28" s="18" t="e"/>
       <c r="N28" s="18" t="e"/>
     </row>
     <row r="29" ht="11" customHeight="true" outlineLevel="2">
       <c r="A29" s="15" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B29" s="15" t="e"/>
       <c r="C29" s="15" t="e"/>
       <c r="D29" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="21" t="n">
-        <v>-1</v>
+      <c r="E29" s="17" t="n">
+        <v>67</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="G29" s="16" t="e"/>
       <c r="H29" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="I29" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="J29" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="K29" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="L29" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="M29" s="18" t="e"/>
+      <c r="N29" s="18" t="e"/>
+    </row>
+    <row r="30" ht="11" customHeight="true" outlineLevel="2">
+      <c r="A30" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="15" t="e"/>
+      <c r="C30" s="15" t="e"/>
+      <c r="D30" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="17" t="n">
+        <v>51</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G30" s="16" t="e"/>
+      <c r="H30" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="L30" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="I29" s="16" t="s">
+      <c r="M30" s="18" t="e"/>
+      <c r="N30" s="18" t="e"/>
+    </row>
+    <row r="31" ht="11" customHeight="true" outlineLevel="2">
+      <c r="A31" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="15" t="e"/>
+      <c r="C31" s="15" t="e"/>
+      <c r="D31" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="17" t="n">
+        <v>31</v>
+      </c>
+      <c r="F31" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="J29" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="K29" s="16" t="s">
+      <c r="G31" s="16" t="e"/>
+      <c r="H31" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="L29" s="16" t="s">
+      <c r="I31" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="M29" s="22" t="n">
-        <v>1200</v>
-      </c>
-      <c r="N29" s="26" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="30" ht="11" customHeight="true">
-      <c r="A30" s="4" t="s">
+      <c r="J31" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="K31" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="B30" s="4" t="e"/>
-      <c r="C30" s="4" t="e"/>
-      <c r="D30" s="5" t="e"/>
-      <c r="E30" s="5" t="e"/>
-      <c r="F30" s="6" t="e"/>
-      <c r="G30" s="7" t="e"/>
-      <c r="H30" s="5" t="e"/>
-      <c r="I30" s="5" t="e"/>
-      <c r="J30" s="5" t="e"/>
-      <c r="K30" s="5" t="e"/>
-      <c r="L30" s="5" t="e"/>
-      <c r="M30" s="8" t="e"/>
-      <c r="N30" s="8" t="e"/>
-    </row>
-    <row r="31" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A31" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B31" s="9" t="e"/>
-      <c r="C31" s="9" t="e"/>
-      <c r="D31" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E31" s="11" t="e"/>
-      <c r="F31" s="12" t="e"/>
-      <c r="G31" s="13" t="e"/>
-      <c r="H31" s="11" t="e"/>
-      <c r="I31" s="11" t="e"/>
-      <c r="J31" s="11" t="e"/>
-      <c r="K31" s="11" t="e"/>
-      <c r="L31" s="11" t="e"/>
-      <c r="M31" s="14" t="e"/>
-      <c r="N31" s="14" t="e"/>
+      <c r="L31" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="M31" s="18" t="e"/>
+      <c r="N31" s="18" t="e"/>
     </row>
     <row r="32" ht="11" customHeight="true" outlineLevel="2">
       <c r="A32" s="15" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="B32" s="15" t="e"/>
       <c r="C32" s="15" t="e"/>
@@ -1574,33 +1606,37 @@
         <v>16</v>
       </c>
       <c r="E32" s="17" t="n">
-        <v>158</v>
+        <v>3</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G32" s="16" t="e"/>
       <c r="H32" s="16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I32" s="16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J32" s="16" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="K32" s="16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L32" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="M32" s="18" t="e"/>
-      <c r="N32" s="18" t="e"/>
+        <v>111</v>
+      </c>
+      <c r="M32" s="21" t="n">
+        <v>13700</v>
+      </c>
+      <c r="N32" s="21" t="n">
+        <v>13000</v>
+      </c>
     </row>
     <row r="33" ht="11" customHeight="true" outlineLevel="2">
       <c r="A33" s="15" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="B33" s="15" t="e"/>
       <c r="C33" s="15" t="e"/>
@@ -1608,379 +1644,337 @@
         <v>16</v>
       </c>
       <c r="E33" s="17" t="n">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G33" s="16" t="e"/>
       <c r="H33" s="16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I33" s="16" t="s">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="J33" s="16" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="K33" s="16" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L33" s="16" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M33" s="18" t="e"/>
       <c r="N33" s="18" t="e"/>
     </row>
-    <row r="34" ht="11" customHeight="true">
-      <c r="A34" s="4" t="s">
+    <row r="34" ht="11" customHeight="true" outlineLevel="2">
+      <c r="A34" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="15" t="e"/>
+      <c r="C34" s="15" t="e"/>
+      <c r="D34" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="G34" s="16" t="e"/>
+      <c r="H34" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="I34" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="J34" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="K34" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B34" s="4" t="e"/>
-      <c r="C34" s="4" t="e"/>
-      <c r="D34" s="5" t="e"/>
-      <c r="E34" s="5" t="e"/>
-      <c r="F34" s="6" t="e"/>
-      <c r="G34" s="7" t="e"/>
-      <c r="H34" s="5" t="e"/>
-      <c r="I34" s="5" t="e"/>
-      <c r="J34" s="5" t="e"/>
-      <c r="K34" s="5" t="e"/>
-      <c r="L34" s="5" t="e"/>
-      <c r="M34" s="19" t="n">
-        <v>42600</v>
-      </c>
-      <c r="N34" s="19" t="n">
-        <v>39800</v>
-      </c>
-    </row>
-    <row r="35" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A35" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B35" s="9" t="e"/>
-      <c r="C35" s="9" t="e"/>
-      <c r="D35" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E35" s="11" t="e"/>
-      <c r="F35" s="12" t="e"/>
-      <c r="G35" s="13" t="e"/>
-      <c r="H35" s="11" t="e"/>
-      <c r="I35" s="11" t="e"/>
-      <c r="J35" s="11" t="e"/>
-      <c r="K35" s="11" t="e"/>
-      <c r="L35" s="11" t="e"/>
-      <c r="M35" s="20" t="n">
-        <v>42600</v>
-      </c>
-      <c r="N35" s="20" t="n">
-        <v>39800</v>
-      </c>
-    </row>
-    <row r="36" ht="11" customHeight="true" outlineLevel="2">
-      <c r="A36" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="B36" s="15" t="e"/>
-      <c r="C36" s="15" t="e"/>
-      <c r="D36" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E36" s="17" t="n">
-        <v>38</v>
-      </c>
-      <c r="F36" s="16" t="s">
+      <c r="L34" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="G36" s="16" t="e"/>
-      <c r="H36" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="I36" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="J36" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="K36" s="16" t="s">
+      <c r="M34" s="21" t="n">
+        <v>5200</v>
+      </c>
+      <c r="N34" s="21" t="n">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="35" ht="11" customHeight="true" outlineLevel="2">
+      <c r="A35" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="15" t="e"/>
+      <c r="C35" s="15" t="e"/>
+      <c r="D35" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="22" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F35" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="L36" s="16" t="s">
+      <c r="G35" s="16" t="e"/>
+      <c r="H35" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="M36" s="18" t="e"/>
-      <c r="N36" s="18" t="e"/>
-    </row>
-    <row r="37" ht="11" customHeight="true" outlineLevel="2">
-      <c r="A37" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="B37" s="15" t="e"/>
-      <c r="C37" s="15" t="e"/>
-      <c r="D37" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E37" s="17" t="n">
-        <v>14</v>
-      </c>
-      <c r="F37" s="16" t="s">
+      <c r="I35" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="J35" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="K35" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="G37" s="16" t="e"/>
-      <c r="H37" s="16" t="s">
+      <c r="L35" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="I37" s="16" t="s">
+      <c r="M35" s="18" t="e"/>
+      <c r="N35" s="18" t="e"/>
+    </row>
+    <row r="36" ht="11" customHeight="true">
+      <c r="A36" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="J37" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="K37" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="L37" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="M37" s="22" t="n">
-        <v>11200</v>
-      </c>
-      <c r="N37" s="22" t="n">
-        <v>10500</v>
-      </c>
+      <c r="B36" s="4" t="e"/>
+      <c r="C36" s="4" t="e"/>
+      <c r="D36" s="5" t="e"/>
+      <c r="E36" s="5" t="e"/>
+      <c r="F36" s="6" t="e"/>
+      <c r="G36" s="7" t="e"/>
+      <c r="H36" s="5" t="e"/>
+      <c r="I36" s="5" t="e"/>
+      <c r="J36" s="5" t="e"/>
+      <c r="K36" s="5" t="e"/>
+      <c r="L36" s="5" t="e"/>
+      <c r="M36" s="8" t="e"/>
+      <c r="N36" s="8" t="e"/>
+    </row>
+    <row r="37" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A37" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B37" s="9" t="e"/>
+      <c r="C37" s="9" t="e"/>
+      <c r="D37" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="11" t="e"/>
+      <c r="F37" s="12" t="e"/>
+      <c r="G37" s="13" t="e"/>
+      <c r="H37" s="11" t="e"/>
+      <c r="I37" s="11" t="e"/>
+      <c r="J37" s="11" t="e"/>
+      <c r="K37" s="11" t="e"/>
+      <c r="L37" s="11" t="e"/>
+      <c r="M37" s="14" t="e"/>
+      <c r="N37" s="14" t="e"/>
     </row>
     <row r="38" ht="11" customHeight="true" outlineLevel="2">
       <c r="A38" s="15" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="B38" s="15" t="e"/>
       <c r="C38" s="15" t="e"/>
       <c r="D38" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E38" s="21" t="n">
-        <v>-6</v>
+      <c r="E38" s="17" t="n">
+        <v>168</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G38" s="16" t="e"/>
       <c r="H38" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="I38" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="J38" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="K38" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="I38" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="J38" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="K38" s="16" t="s">
+      <c r="L38" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="L38" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="M38" s="22" t="n">
-        <v>15700</v>
-      </c>
-      <c r="N38" s="22" t="n">
-        <v>15000</v>
-      </c>
+      <c r="M38" s="18" t="e"/>
+      <c r="N38" s="18" t="e"/>
     </row>
     <row r="39" ht="11" customHeight="true" outlineLevel="2">
       <c r="A39" s="15" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="B39" s="15" t="e"/>
       <c r="C39" s="15" t="e"/>
       <c r="D39" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E39" s="21" t="n">
-        <v>-3</v>
+      <c r="E39" s="17" t="n">
+        <v>104</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G39" s="16" t="e"/>
       <c r="H39" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="I39" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="J39" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="K39" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="I39" s="16" t="s">
+      <c r="L39" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="J39" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="K39" s="16" t="s">
+      <c r="M39" s="18" t="e"/>
+      <c r="N39" s="18" t="e"/>
+    </row>
+    <row r="40" ht="11" customHeight="true">
+      <c r="A40" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="L39" s="16" t="s">
+      <c r="B40" s="4" t="e"/>
+      <c r="C40" s="4" t="e"/>
+      <c r="D40" s="5" t="e"/>
+      <c r="E40" s="5" t="e"/>
+      <c r="F40" s="6" t="e"/>
+      <c r="G40" s="7" t="e"/>
+      <c r="H40" s="5" t="e"/>
+      <c r="I40" s="5" t="e"/>
+      <c r="J40" s="5" t="e"/>
+      <c r="K40" s="5" t="e"/>
+      <c r="L40" s="5" t="e"/>
+      <c r="M40" s="19" t="n">
+        <v>8200</v>
+      </c>
+      <c r="N40" s="19" t="n">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="41" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A41" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B41" s="9" t="e"/>
+      <c r="C41" s="9" t="e"/>
+      <c r="D41" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="11" t="e"/>
+      <c r="F41" s="12" t="e"/>
+      <c r="G41" s="13" t="e"/>
+      <c r="H41" s="11" t="e"/>
+      <c r="I41" s="11" t="e"/>
+      <c r="J41" s="11" t="e"/>
+      <c r="K41" s="11" t="e"/>
+      <c r="L41" s="11" t="e"/>
+      <c r="M41" s="20" t="n">
+        <v>8200</v>
+      </c>
+      <c r="N41" s="20" t="n">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="42" ht="11" customHeight="true" outlineLevel="2">
+      <c r="A42" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B42" s="15" t="e"/>
+      <c r="C42" s="15" t="e"/>
+      <c r="D42" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="22" t="n">
+        <v>-7</v>
+      </c>
+      <c r="F42" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="M39" s="22" t="n">
-        <v>12000</v>
-      </c>
-      <c r="N39" s="22" t="n">
-        <v>11300</v>
-      </c>
-    </row>
-    <row r="40" ht="11" customHeight="true" outlineLevel="2">
-      <c r="A40" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="B40" s="15" t="e"/>
-      <c r="C40" s="15" t="e"/>
-      <c r="D40" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E40" s="21" t="n">
-        <v>-3</v>
-      </c>
-      <c r="F40" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="G40" s="16" t="e"/>
-      <c r="H40" s="16" t="s">
+      <c r="G42" s="16" t="e"/>
+      <c r="H42" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="I40" s="16" t="s">
+      <c r="I42" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="J40" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="K40" s="16" t="s">
+      <c r="J42" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="K42" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="L40" s="16" t="s">
+      <c r="L42" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="M40" s="22" t="n">
-        <v>3700</v>
-      </c>
-      <c r="N40" s="22" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="41" ht="11" customHeight="true">
-      <c r="A41" s="4" t="s">
+      <c r="M42" s="21" t="n">
+        <v>8200</v>
+      </c>
+      <c r="N42" s="21" t="n">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="43" ht="11" customHeight="true">
+      <c r="A43" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B41" s="4" t="e"/>
-      <c r="C41" s="4" t="e"/>
-      <c r="D41" s="5" t="e"/>
-      <c r="E41" s="5" t="e"/>
-      <c r="F41" s="6" t="e"/>
-      <c r="G41" s="7" t="e"/>
-      <c r="H41" s="5" t="e"/>
-      <c r="I41" s="5" t="e"/>
-      <c r="J41" s="5" t="e"/>
-      <c r="K41" s="5" t="e"/>
-      <c r="L41" s="5" t="e"/>
-      <c r="M41" s="19" t="n">
-        <v>6600</v>
-      </c>
-      <c r="N41" s="19" t="n">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="42" ht="11" customHeight="true" outlineLevel="1">
-      <c r="A42" s="9" t="s">
+      <c r="B43" s="4" t="e"/>
+      <c r="C43" s="4" t="e"/>
+      <c r="D43" s="5" t="e"/>
+      <c r="E43" s="5" t="e"/>
+      <c r="F43" s="6" t="e"/>
+      <c r="G43" s="7" t="e"/>
+      <c r="H43" s="5" t="e"/>
+      <c r="I43" s="5" t="e"/>
+      <c r="J43" s="5" t="e"/>
+      <c r="K43" s="5" t="e"/>
+      <c r="L43" s="5" t="e"/>
+      <c r="M43" s="19" t="n">
+        <v>26900</v>
+      </c>
+      <c r="N43" s="19" t="n">
+        <v>25500</v>
+      </c>
+    </row>
+    <row r="44" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A44" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B42" s="9" t="e"/>
-      <c r="C42" s="9" t="e"/>
-      <c r="D42" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E42" s="11" t="e"/>
-      <c r="F42" s="12" t="e"/>
-      <c r="G42" s="13" t="e"/>
-      <c r="H42" s="11" t="e"/>
-      <c r="I42" s="11" t="e"/>
-      <c r="J42" s="11" t="e"/>
-      <c r="K42" s="11" t="e"/>
-      <c r="L42" s="11" t="e"/>
-      <c r="M42" s="20" t="n">
-        <v>6600</v>
-      </c>
-      <c r="N42" s="20" t="n">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="43" ht="11" customHeight="true" outlineLevel="2">
-      <c r="A43" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="B43" s="15" t="e"/>
-      <c r="C43" s="15" t="e"/>
-      <c r="D43" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E43" s="17" t="n">
-        <v>419</v>
-      </c>
-      <c r="F43" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="G43" s="16" t="e"/>
-      <c r="H43" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="I43" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="J43" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="K43" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="L43" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="M43" s="22" t="n">
-        <v>6600</v>
-      </c>
-      <c r="N43" s="22" t="n">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="44" ht="11" customHeight="true" outlineLevel="2">
-      <c r="A44" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="B44" s="15" t="e"/>
-      <c r="C44" s="15" t="e"/>
-      <c r="D44" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E44" s="17" t="n">
-        <v>29</v>
-      </c>
-      <c r="F44" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="G44" s="16" t="e"/>
-      <c r="H44" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="I44" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="J44" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="K44" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="L44" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="M44" s="18" t="e"/>
-      <c r="N44" s="18" t="e"/>
+      <c r="B44" s="9" t="e"/>
+      <c r="C44" s="9" t="e"/>
+      <c r="D44" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="11" t="e"/>
+      <c r="F44" s="12" t="e"/>
+      <c r="G44" s="13" t="e"/>
+      <c r="H44" s="11" t="e"/>
+      <c r="I44" s="11" t="e"/>
+      <c r="J44" s="11" t="e"/>
+      <c r="K44" s="11" t="e"/>
+      <c r="L44" s="11" t="e"/>
+      <c r="M44" s="20" t="n">
+        <v>26900</v>
+      </c>
+      <c r="N44" s="20" t="n">
+        <v>25500</v>
+      </c>
     </row>
     <row r="45" ht="11" customHeight="true" outlineLevel="2">
       <c r="A45" s="15" t="s">
@@ -1992,54 +1986,282 @@
         <v>16</v>
       </c>
       <c r="E45" s="17" t="n">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="G45" s="16" t="e"/>
       <c r="H45" s="16" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="I45" s="16" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="J45" s="16" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="K45" s="16" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="L45" s="16" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="M45" s="18" t="e"/>
       <c r="N45" s="18" t="e"/>
     </row>
-    <row r="46" ht="13" customHeight="true">
-      <c r="A46" s="27" t="s">
+    <row r="46" ht="11" customHeight="true" outlineLevel="2">
+      <c r="A46" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B46" s="15" t="e"/>
+      <c r="C46" s="15" t="e"/>
+      <c r="D46" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" s="17" t="n">
+        <v>24</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="G46" s="16" t="e"/>
+      <c r="H46" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="I46" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="J46" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="K46" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="L46" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="M46" s="21" t="n">
+        <v>11200</v>
+      </c>
+      <c r="N46" s="21" t="n">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="47" ht="11" customHeight="true" outlineLevel="2">
+      <c r="A47" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B47" s="15" t="e"/>
+      <c r="C47" s="15" t="e"/>
+      <c r="D47" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="G47" s="16" t="e"/>
+      <c r="H47" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="I47" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="J47" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="K47" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="L47" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="M47" s="21" t="n">
+        <v>15700</v>
+      </c>
+      <c r="N47" s="21" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="48" ht="11" customHeight="true">
+      <c r="A48" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B48" s="4" t="e"/>
+      <c r="C48" s="4" t="e"/>
+      <c r="D48" s="5" t="e"/>
+      <c r="E48" s="5" t="e"/>
+      <c r="F48" s="6" t="e"/>
+      <c r="G48" s="7" t="e"/>
+      <c r="H48" s="5" t="e"/>
+      <c r="I48" s="5" t="e"/>
+      <c r="J48" s="5" t="e"/>
+      <c r="K48" s="5" t="e"/>
+      <c r="L48" s="5" t="e"/>
+      <c r="M48" s="19" t="n">
+        <v>6600</v>
+      </c>
+      <c r="N48" s="19" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="49" ht="11" customHeight="true" outlineLevel="1">
+      <c r="A49" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B49" s="9" t="e"/>
+      <c r="C49" s="9" t="e"/>
+      <c r="D49" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" s="11" t="e"/>
+      <c r="F49" s="12" t="e"/>
+      <c r="G49" s="13" t="e"/>
+      <c r="H49" s="11" t="e"/>
+      <c r="I49" s="11" t="e"/>
+      <c r="J49" s="11" t="e"/>
+      <c r="K49" s="11" t="e"/>
+      <c r="L49" s="11" t="e"/>
+      <c r="M49" s="20" t="n">
+        <v>6600</v>
+      </c>
+      <c r="N49" s="20" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="50" ht="11" customHeight="true" outlineLevel="2">
+      <c r="A50" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B50" s="15" t="e"/>
+      <c r="C50" s="15" t="e"/>
+      <c r="D50" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" s="17" t="n">
+        <v>429</v>
+      </c>
+      <c r="F50" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="B46" s="27" t="e"/>
-      <c r="C46" s="27" t="e"/>
-      <c r="D46" s="27" t="e"/>
-      <c r="E46" s="27" t="e"/>
-      <c r="F46" s="27" t="e"/>
-      <c r="G46" s="27" t="e"/>
-      <c r="H46" s="27" t="e"/>
-      <c r="I46" s="27" t="e"/>
-      <c r="J46" s="27" t="e"/>
-      <c r="K46" s="27" t="e"/>
-      <c r="L46" s="27" t="e"/>
-      <c r="M46" s="28" t="n">
-        <v>61100</v>
-      </c>
-      <c r="N46" s="28" t="n">
-        <v>56300</v>
+      <c r="G50" s="16" t="e"/>
+      <c r="H50" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="I50" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="J50" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="K50" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="L50" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="M50" s="21" t="n">
+        <v>6600</v>
+      </c>
+      <c r="N50" s="21" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="51" ht="11" customHeight="true" outlineLevel="2">
+      <c r="A51" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B51" s="15" t="e"/>
+      <c r="C51" s="15" t="e"/>
+      <c r="D51" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" s="17" t="n">
+        <v>39</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="G51" s="16" t="e"/>
+      <c r="H51" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="I51" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="J51" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="K51" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="L51" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="M51" s="18" t="e"/>
+      <c r="N51" s="18" t="e"/>
+    </row>
+    <row r="52" ht="11" customHeight="true" outlineLevel="2">
+      <c r="A52" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B52" s="15" t="e"/>
+      <c r="C52" s="15" t="e"/>
+      <c r="D52" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" s="17" t="n">
+        <v>38</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="G52" s="16" t="e"/>
+      <c r="H52" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="I52" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="J52" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="K52" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="L52" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="M52" s="18" t="e"/>
+      <c r="N52" s="18" t="e"/>
+    </row>
+    <row r="53" ht="13" customHeight="true">
+      <c r="A53" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="B53" s="24" t="e"/>
+      <c r="C53" s="24" t="e"/>
+      <c r="D53" s="24" t="e"/>
+      <c r="E53" s="24" t="e"/>
+      <c r="F53" s="24" t="e"/>
+      <c r="G53" s="24" t="e"/>
+      <c r="H53" s="24" t="e"/>
+      <c r="I53" s="24" t="e"/>
+      <c r="J53" s="24" t="e"/>
+      <c r="K53" s="24" t="e"/>
+      <c r="L53" s="24" t="e"/>
+      <c r="M53" s="25" t="n">
+        <v>71300</v>
+      </c>
+      <c r="N53" s="25" t="n">
+        <v>66500</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="69">
+  <mergeCells count="79">
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="A6:C6"/>
@@ -2059,9 +2281,7 @@
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="A18:C18"/>
-    <mergeCell ref="F18:G18"/>
     <mergeCell ref="A19:C19"/>
-    <mergeCell ref="F19:G19"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="A21:C21"/>
@@ -2083,32 +2303,44 @@
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="A30:C30"/>
+    <mergeCell ref="F30:G30"/>
     <mergeCell ref="A31:C31"/>
+    <mergeCell ref="F31:G31"/>
     <mergeCell ref="A32:C32"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="A33:C33"/>
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="A34:C34"/>
+    <mergeCell ref="F34:G34"/>
     <mergeCell ref="A35:C35"/>
+    <mergeCell ref="F35:G35"/>
     <mergeCell ref="A36:C36"/>
-    <mergeCell ref="F36:G36"/>
     <mergeCell ref="A37:C37"/>
-    <mergeCell ref="F37:G37"/>
     <mergeCell ref="A38:C38"/>
     <mergeCell ref="F38:G38"/>
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="F39:G39"/>
     <mergeCell ref="A40:C40"/>
-    <mergeCell ref="F40:G40"/>
     <mergeCell ref="A41:C41"/>
     <mergeCell ref="A42:C42"/>
+    <mergeCell ref="F42:G42"/>
     <mergeCell ref="A43:C43"/>
-    <mergeCell ref="F43:G43"/>
     <mergeCell ref="A44:C44"/>
-    <mergeCell ref="F44:G44"/>
     <mergeCell ref="A45:C45"/>
     <mergeCell ref="F45:G45"/>
-    <mergeCell ref="A46:L46"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="A53:L53"/>
   </mergeCells>
   <pageMargins left="0.75" top="0.75" right="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
